--- a/FI/FI Market Research Template.xlsx
+++ b/FI/FI Market Research Template.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="525" windowWidth="16935" windowHeight="7875"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>FI Market Research Template</t>
   </si>
@@ -218,111 +221,135 @@
   </si>
   <si>
     <t>Recent M&amp;A / IPO URL 3</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="19">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF999999"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF999999"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -330,7 +357,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -364,7 +391,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -378,6 +411,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -386,6 +420,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -394,9 +431,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -408,202 +447,215 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -757,7 +809,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -766,13 +818,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -782,7 +834,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -791,7 +843,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -800,7 +852,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -810,12 +862,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -846,7 +898,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -865,7 +917,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -916,574 +968,584 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.25"/>
-    <col customWidth="1" min="2" max="5" width="31.0"/>
-    <col customWidth="1" min="6" max="11" width="14.38"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="5" width="31" customWidth="1"/>
+    <col min="6" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="24.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="24.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="C5" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="24.75" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" ht="24.75" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" ht="24.75" customHeight="1">
-      <c r="A11" s="20" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" ht="24.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" ht="24.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="B13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" ht="24.75" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="B15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" ht="24.75" customHeight="1">
-      <c r="A17" s="35" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="B18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" ht="24.75" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" ht="24.75" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="B21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="A23" s="17" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" ht="24.75" customHeight="1">
-      <c r="A24" s="20" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="B24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" ht="24.75" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="24.75" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="B26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" ht="24.75" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="B28" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="A30" s="11" t="s">
+      <c r="B29" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" ht="24.75" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="B30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-    </row>
-    <row r="32" ht="24.75" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="B31" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A32" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" ht="24.75" customHeight="1">
-      <c r="A34" s="11" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="A35" s="20" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A35" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" ht="24.75" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-    </row>
-    <row r="37" ht="24.75" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A37" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="A38" s="17" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+    </row>
+    <row r="38" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A38" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-    </row>
-    <row r="39" ht="24.75" customHeight="1">
-      <c r="A39" s="20" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+    </row>
+    <row r="39" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="A40" s="11" t="s">
+      <c r="B39" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-    </row>
-    <row r="41" ht="24.75" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-    </row>
-    <row r="42" ht="24.75" customHeight="1">
-      <c r="A42" s="11" t="s">
+      <c r="B41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="A43" s="25" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A43" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" ht="24.75" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="B43" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+    </row>
+    <row r="44" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A45" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" ht="24.75" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="B45" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-    </row>
-    <row r="47" ht="24.75" customHeight="1">
-      <c r="A47" s="20" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+    </row>
+    <row r="47" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A47" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="A48" s="11" t="s">
+      <c r="B47" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A48" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-    </row>
-    <row r="49" ht="24.75" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A49" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
+      <c r="B49" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="51" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="52" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="54" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="55" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="57" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="58" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="59" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="60" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="61" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="62" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="63" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="64" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="65" ht="12.75" customHeight="1"/>
     <row r="66" ht="12.75" customHeight="1"/>
     <row r="67" ht="12.75" customHeight="1"/>
@@ -1525,28 +1587,28 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B9"/>
-    <hyperlink r:id="rId2" ref="B11"/>
-    <hyperlink r:id="rId3" ref="B13"/>
-    <hyperlink r:id="rId4" ref="B15"/>
-    <hyperlink r:id="rId5" ref="B18"/>
-    <hyperlink r:id="rId6" ref="B21"/>
-    <hyperlink r:id="rId7" ref="B24"/>
-    <hyperlink r:id="rId8" ref="B26"/>
-    <hyperlink r:id="rId9" ref="B28"/>
-    <hyperlink r:id="rId10" ref="B29"/>
-    <hyperlink r:id="rId11" ref="B30"/>
-    <hyperlink r:id="rId12" ref="B31"/>
-    <hyperlink r:id="rId13" ref="B33"/>
-    <hyperlink r:id="rId14" ref="B35"/>
-    <hyperlink r:id="rId15" ref="B37"/>
-    <hyperlink r:id="rId16" ref="B39"/>
-    <hyperlink r:id="rId17" ref="B41"/>
-    <hyperlink r:id="rId18" ref="B43"/>
-    <hyperlink r:id="rId19" ref="B45"/>
-    <hyperlink r:id="rId20" ref="B47"/>
-    <hyperlink r:id="rId21" ref="B49"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
+    <hyperlink ref="B24" r:id="rId7"/>
+    <hyperlink ref="B26" r:id="rId8"/>
+    <hyperlink ref="B28" r:id="rId9"/>
+    <hyperlink ref="B29" r:id="rId10"/>
+    <hyperlink ref="B30" r:id="rId11"/>
+    <hyperlink ref="B31" r:id="rId12"/>
+    <hyperlink ref="B33" r:id="rId13"/>
+    <hyperlink ref="B35" r:id="rId14"/>
+    <hyperlink ref="B37" r:id="rId15"/>
+    <hyperlink ref="B39" r:id="rId16"/>
+    <hyperlink ref="B41" r:id="rId17"/>
+    <hyperlink ref="B43" r:id="rId18"/>
+    <hyperlink ref="B45" r:id="rId19"/>
+    <hyperlink ref="B47" r:id="rId20"/>
+    <hyperlink ref="B49" r:id="rId21"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FI/FI Market Research Template.xlsx
+++ b/FI/FI Market Research Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>FI Market Research Template</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Education</t>
+  </si>
+  <si>
+    <t>Payment Processing</t>
+  </si>
+  <si>
+    <t>Personal Tutoring</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1060,12 @@
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>72</v>
+      </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1">
